--- a/data/Game/KeyItem.xlsx
+++ b/data/Game/KeyItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5154621-8F7A-4F3D-967B-6483AFE7DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820508B6-3EB6-4D0C-A77A-17648606CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KeyItem" sheetId="1" r:id="rId1"/>
@@ -248,6 +248,42 @@
     <t>EA 23.50</t>
   </si>
   <si>
+    <t>Vòng cổ cũ</t>
+  </si>
+  <si>
+    <t>Balo cũ kỹ</t>
+  </si>
+  <si>
+    <t>Hương thơm nữ thần</t>
+  </si>
+  <si>
+    <t>Nước bọt của thánh miêu</t>
+  </si>
+  <si>
+    <t>Mảnh lông vũ của nữ thần</t>
+  </si>
+  <si>
+    <t>Chìa khóa mỏ Vernis</t>
+  </si>
+  <si>
+    <t>Chía khóa Nymelle</t>
+  </si>
+  <si>
+    <t>Vòng tay tha thứ</t>
+  </si>
+  <si>
+    <t>Giấy phép kỹ sư ánh sáng</t>
+  </si>
+  <si>
+    <t>Giấy phép thăm dò Hư không</t>
+  </si>
+  <si>
+    <t>Giấy phép thám hiểm giả nâng cao</t>
+  </si>
+  <si>
+    <t>Xu may mắn</t>
+  </si>
+  <si>
     <t>Một chiếc bùa hộ mệnh làm từ vỏ sò phai màu, trông có phần quen thuộc.</t>
   </si>
   <si>
@@ -284,42 +320,6 @@
   </si>
   <si>
     <t>Một đồng xu được đồn rằng sẽ mang lại may mắn cho người sở hữu.</t>
-  </si>
-  <si>
-    <t>Vòng cổ cũ</t>
-  </si>
-  <si>
-    <t>Balo cũ kỹ</t>
-  </si>
-  <si>
-    <t>Hương thơm nữ thần</t>
-  </si>
-  <si>
-    <t>Nước bọt của thánh miêu</t>
-  </si>
-  <si>
-    <t>Mảnh lông vũ của nữ thần</t>
-  </si>
-  <si>
-    <t>Chìa khóa mỏ Vernis</t>
-  </si>
-  <si>
-    <t>Chía khóa Nymelle</t>
-  </si>
-  <si>
-    <t>Vòng tay tha thứ</t>
-  </si>
-  <si>
-    <t>Giấy phép kỹ sư ánh sáng</t>
-  </si>
-  <si>
-    <t>Giấy phép thăm dò Hư không</t>
-  </si>
-  <si>
-    <t>Xu may mắn</t>
-  </si>
-  <si>
-    <t>Giấy phép thám hiểm giả nâng cao</t>
   </si>
 </sst>
 </file>
@@ -360,11 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,15 +681,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,15 +715,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
+      <c r="C3" t="s">
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -733,8 +731,8 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>73</v>
+      <c r="F3" t="s">
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -743,15 +741,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>86</v>
+      <c r="C4" t="s">
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -759,8 +757,8 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>74</v>
+      <c r="F4" t="s">
+        <v>86</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -769,15 +767,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
+      <c r="C5" t="s">
+        <v>75</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -785,8 +783,8 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>75</v>
+      <c r="F5" t="s">
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -795,15 +793,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>88</v>
+      <c r="C6" t="s">
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -811,8 +809,8 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>76</v>
+      <c r="F6" t="s">
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -821,15 +819,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>89</v>
+      <c r="C7" t="s">
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -837,8 +835,8 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>77</v>
+      <c r="F7" t="s">
+        <v>89</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -847,15 +845,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>90</v>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -863,8 +861,8 @@
       <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>78</v>
+      <c r="F8" t="s">
+        <v>90</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -873,15 +871,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -889,8 +887,8 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>79</v>
+      <c r="F9" t="s">
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -899,15 +897,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>92</v>
+      <c r="C10" t="s">
+        <v>80</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
@@ -915,8 +913,8 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>80</v>
+      <c r="F10" t="s">
+        <v>92</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -925,15 +923,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>93</v>
+      <c r="C11" t="s">
+        <v>81</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
@@ -941,8 +939,8 @@
       <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>81</v>
+      <c r="F11" t="s">
+        <v>93</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -951,15 +949,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>94</v>
+      <c r="C12" t="s">
+        <v>82</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -967,8 +965,8 @@
       <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>82</v>
+      <c r="F12" t="s">
+        <v>94</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -977,15 +975,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
+      <c r="C13" t="s">
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -993,8 +991,8 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>83</v>
+      <c r="F13" t="s">
+        <v>95</v>
       </c>
       <c r="G13" t="s">
         <v>61</v>
@@ -1003,15 +1001,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>95</v>
+      <c r="C14" t="s">
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1019,8 +1017,8 @@
       <c r="E14" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>84</v>
+      <c r="F14" t="s">
+        <v>96</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>

--- a/data/Game/KeyItem.xlsx
+++ b/data/Game/KeyItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820508B6-3EB6-4D0C-A77A-17648606CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFCA5D9-A1C9-4D46-BBEE-0CF10C4DEF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>EA 23.209 Patch 2</t>
   </si>
   <si>
     <t>Old Charm</t>
@@ -173,6 +176,30 @@
     <t>枯れた蔦で編まれたボロボロの腕輪だ。</t>
   </si>
   <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>Bubbling Mysterious Vial</t>
+  </si>
+  <si>
+    <t>泡立つ謎の瓶</t>
+  </si>
+  <si>
+    <t>A vial filled with a bubbling, clear liquid. It reeks of corruption.</t>
+  </si>
+  <si>
+    <t>泡立つ透明な液体が入った瓶だ。とても穢れた匂いがする。</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>A vial filled with a bubbling, clear liquid. It smells like detergent.</t>
+  </si>
+  <si>
+    <t>泡立つ透明な液体が入った瓶だ。洗剤の匂いがする。</t>
+  </si>
+  <si>
     <t>590</t>
   </si>
   <si>
@@ -320,6 +347,12 @@
   </si>
   <si>
     <t>Một đồng xu được đồn rằng sẽ mang lại may mắn cho người sở hữu.</t>
+  </si>
+  <si>
+    <t>Một chiếc lọ chứa chất lỏng trong suốt đang sủi bọt. Nó bốc lên mùi ô uế nồng nặc.</t>
+  </si>
+  <si>
+    <t>Lọ sủi bọt bí ẩn</t>
   </si>
 </sst>
 </file>
@@ -677,16 +710,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -720,311 +755,363 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
